--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.2/root_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.2/root_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="896">
   <si>
     <t>anchor score</t>
   </si>
@@ -88,703 +88,703 @@
     <t>avoid</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>losses</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>accused</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>stolen</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>trouble</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>bastards</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>risks</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>scare</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>criminal</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>allegedly</t>
+  </si>
+  <si>
+    <t>upset</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>significantly</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>hoax</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>hardship</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>losses</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>madness</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>stolen</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>destroy</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>desperate</t>
-  </si>
-  <si>
-    <t>threatening</t>
-  </si>
-  <si>
-    <t>trouble</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>deadly</t>
-  </si>
-  <si>
-    <t>bastards</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>risks</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>scare</t>
-  </si>
-  <si>
-    <t>hurt</t>
-  </si>
-  <si>
-    <t>criminal</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>allegedly</t>
-  </si>
-  <si>
-    <t>upset</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>significantly</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>mask</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>losing</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>hoax</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>hardship</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>3</t>
@@ -3067,10 +3067,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3128,7 +3128,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03288968190690861</v>
+        <v>0.03340683051277488</v>
       </c>
       <c r="C3">
         <v>243</v>
@@ -3178,7 +3178,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03185839993720284</v>
+        <v>0.03235933293981706</v>
       </c>
       <c r="C4">
         <v>228</v>
@@ -3228,7 +3228,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01334401532561732</v>
+        <v>0.01355383307155458</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -3249,7 +3249,7 @@
         <v>35</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K5">
         <v>0.009776364233105626</v>
@@ -3278,7 +3278,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01265924446834323</v>
+        <v>0.01285829505954852</v>
       </c>
       <c r="C6">
         <v>36</v>
@@ -3299,7 +3299,7 @@
         <v>2303</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K6">
         <v>0.009251304736669033</v>
@@ -3328,7 +3328,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01174728170186576</v>
+        <v>0.01193199283321793</v>
       </c>
       <c r="C7">
         <v>31</v>
@@ -3349,7 +3349,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>0.009179027811213483</v>
@@ -3378,7 +3378,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01054937039028603</v>
+        <v>0.0107152458829571</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -3399,7 +3399,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>255</v>
       </c>
       <c r="K8">
         <v>0.008617650101471891</v>
@@ -3408,19 +3408,19 @@
         <v>223</v>
       </c>
       <c r="M8">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="N8">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3428,7 +3428,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.01033622982553048</v>
+        <v>0.01049875395268124</v>
       </c>
       <c r="C9">
         <v>24</v>
@@ -3449,7 +3449,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9">
         <v>0.008181528617998899</v>
@@ -3478,7 +3478,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.009896186626962447</v>
+        <v>0.01005179163196102</v>
       </c>
       <c r="C10">
         <v>22</v>
@@ -3499,7 +3499,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K10">
         <v>0.008079127478418052</v>
@@ -3528,7 +3528,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.009896186626962447</v>
+        <v>0.01005179163196102</v>
       </c>
       <c r="C11">
         <v>22</v>
@@ -3549,7 +3549,7 @@
         <v>1652</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K11">
         <v>0.007912529637806172</v>
@@ -3578,7 +3578,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.009668657669522311</v>
+        <v>0.009820685069742967</v>
       </c>
       <c r="C12">
         <v>21</v>
@@ -3599,7 +3599,7 @@
         <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K12">
         <v>0.007612215056622225</v>
@@ -3628,7 +3628,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.009435643725001219</v>
+        <v>0.009584007275966734</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -3649,7 +3649,7 @@
         <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>30</v>
+        <v>256</v>
       </c>
       <c r="K13">
         <v>0.007568340252817916</v>
@@ -3658,19 +3658,19 @@
         <v>172</v>
       </c>
       <c r="M13">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="N13">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3678,7 +3678,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.008951437608263791</v>
+        <v>0.00909218763110424</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -3699,7 +3699,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K14">
         <v>0.007230798367995605</v>
@@ -3728,7 +3728,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.008951437608263791</v>
+        <v>0.00909218763110424</v>
       </c>
       <c r="C15">
         <v>18</v>
@@ -3749,7 +3749,7 @@
         <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K15">
         <v>0.006754554476809446</v>
@@ -3778,7 +3778,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.008951437608263791</v>
+        <v>0.00909218763110424</v>
       </c>
       <c r="C16">
         <v>18</v>
@@ -3799,7 +3799,7 @@
         <v>59</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K16">
         <v>0.006579730433668163</v>
@@ -3828,7 +3828,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.008171507166910286</v>
+        <v>0.008299993771042088</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K17">
         <v>0.006528920944068545</v>
@@ -3878,7 +3878,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.008171507166910286</v>
+        <v>0.008299993771042088</v>
       </c>
       <c r="C18">
         <v>15</v>
@@ -3899,7 +3899,7 @@
         <v>39</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K18">
         <v>0.00637406283592894</v>
@@ -3928,28 +3928,28 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.008171507166910286</v>
+        <v>0.0080185557818131</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="E19">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K19">
         <v>0.006242080368095652</v>
@@ -3978,28 +3978,28 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.007894425929325603</v>
+        <v>0.007726873692041247</v>
       </c>
       <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>14</v>
       </c>
-      <c r="D20">
-        <v>14</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>11</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K20">
         <v>0.00616153402108614</v>
@@ -4028,7 +4028,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.007607259173207566</v>
+        <v>0.007726873692041247</v>
       </c>
       <c r="C21">
         <v>13</v>
@@ -4046,10 +4046,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K21">
         <v>0.005997196831476812</v>
@@ -4078,28 +4078,28 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.007607259173207566</v>
+        <v>0.007726873692041247</v>
       </c>
       <c r="C22">
         <v>13</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>214</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K22">
         <v>0.005683584121251637</v>
@@ -4128,28 +4128,28 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.007607259173207566</v>
+        <v>0.007423740113949973</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="E23">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K23">
         <v>0.005683584121251637</v>
@@ -4178,13 +4178,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007308818201535247</v>
+        <v>0.007107690026033831</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4196,10 +4196,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K24">
         <v>0.00550499743921987</v>
@@ -4228,28 +4228,28 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.007308818201535247</v>
+        <v>0.007107690026033831</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="E25">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K25">
         <v>0.005257453876397659</v>
@@ -4278,7 +4278,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006997660671812772</v>
+        <v>0.007107690026033831</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -4296,10 +4296,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K26">
         <v>0.005193724807554462</v>
@@ -4328,7 +4328,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.006997660671812772</v>
+        <v>0.007107690026033831</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -4346,10 +4346,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K27">
         <v>0.00512920398217545</v>
@@ -4378,28 +4378,28 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006997660671812772</v>
+        <v>0.007107690026033831</v>
       </c>
       <c r="C28">
         <v>11</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K28">
         <v>0.004964234460232428</v>
@@ -4428,28 +4428,28 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006997660671812772</v>
+        <v>0.007107690026033831</v>
       </c>
       <c r="C29">
         <v>11</v>
       </c>
       <c r="D29">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>509</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K29">
         <v>0.004758727993763956</v>
@@ -4478,28 +4478,28 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.006997660671812772</v>
+        <v>0.006776916535777289</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="E30">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>219</v>
+        <v>2</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K30">
         <v>0.004652572008026261</v>
@@ -4528,28 +4528,28 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.006997660671812772</v>
+        <v>0.006776916535777289</v>
       </c>
       <c r="C31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="E31">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>509</v>
+        <v>22</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K31">
         <v>0.004652572008026261</v>
@@ -4578,7 +4578,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.006672007662808658</v>
+        <v>0.006776916535777289</v>
       </c>
       <c r="C32">
         <v>10</v>
@@ -4596,10 +4596,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K32">
         <v>0.004580434739631969</v>
@@ -4628,7 +4628,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.006672007662808658</v>
+        <v>0.006776916535777289</v>
       </c>
       <c r="C33">
         <v>10</v>
@@ -4646,10 +4646,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K33">
         <v>0.004543936670014924</v>
@@ -4678,13 +4678,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.006672007662808658</v>
+        <v>0.006429147529774261</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -4696,10 +4696,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K34">
         <v>0.004432639691238517</v>
@@ -4728,13 +4728,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.006672007662808658</v>
+        <v>0.006429147529774261</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -4749,7 +4749,7 @@
         <v>6</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K35">
         <v>0.004318475286901604</v>
@@ -4778,7 +4778,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006329622234171617</v>
+        <v>0.006429147529774261</v>
       </c>
       <c r="C36">
         <v>9</v>
@@ -4799,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K36">
         <v>0.004318475286901604</v>
@@ -4828,7 +4828,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.006329622234171617</v>
+        <v>0.006429147529774261</v>
       </c>
       <c r="C37">
         <v>9</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>257</v>
@@ -4878,7 +4878,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006329622234171617</v>
+        <v>0.006429147529774261</v>
       </c>
       <c r="C38">
         <v>9</v>
@@ -4896,10 +4896,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K38">
         <v>0.00408057559004284</v>
@@ -4928,7 +4928,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.006329622234171617</v>
+        <v>0.006429147529774261</v>
       </c>
       <c r="C39">
         <v>9</v>
@@ -4946,10 +4946,10 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K39">
         <v>0.00408057559004284</v>
@@ -4978,7 +4978,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.006329622234171617</v>
+        <v>0.006429147529774261</v>
       </c>
       <c r="C40">
         <v>9</v>
@@ -4996,10 +4996,10 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K40">
         <v>0.003998131220984541</v>
@@ -5028,25 +5028,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.006329622234171617</v>
+        <v>0.006429147529774261</v>
       </c>
       <c r="C41">
         <v>9</v>
       </c>
       <c r="D41">
-        <v>9</v>
+        <v>262</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>639</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>258</v>
@@ -5078,28 +5078,28 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.006329622234171617</v>
+        <v>0.006429147529774261</v>
       </c>
       <c r="C42">
         <v>9</v>
       </c>
       <c r="D42">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>270</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K42">
         <v>0.003956264818903086</v>
@@ -5128,28 +5128,28 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.006329622234171617</v>
+        <v>0.006061458420736162</v>
       </c>
       <c r="C43">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D43">
-        <v>262</v>
+        <v>8</v>
       </c>
       <c r="E43">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>639</v>
+        <v>3</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K43">
         <v>0.003739909304072081</v>
@@ -5178,28 +5178,28 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.006329622234171617</v>
+        <v>0.006061458420736162</v>
       </c>
       <c r="C44">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="E44">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K44">
         <v>0.003649777762664843</v>
@@ -5228,28 +5228,28 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.005967625072175861</v>
+        <v>0.006061458420736162</v>
       </c>
       <c r="C45">
         <v>8</v>
       </c>
       <c r="D45">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>931</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K45">
         <v>0.003557363325695119</v>
@@ -5278,25 +5278,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005967625072175861</v>
+        <v>0.006061458420736162</v>
       </c>
       <c r="C46">
         <v>8</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>265</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>629</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>259</v>
@@ -5328,28 +5328,28 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.005967625072175861</v>
+        <v>0.005669975168642641</v>
       </c>
       <c r="C47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E47">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>931</v>
+        <v>0</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K47">
         <v>0.003414054481439544</v>
@@ -5378,28 +5378,28 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.005967625072175861</v>
+        <v>0.005669975168642641</v>
       </c>
       <c r="C48">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48">
-        <v>265</v>
+        <v>7</v>
       </c>
       <c r="E48">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>629</v>
+        <v>2</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K48">
         <v>0.003213048432649772</v>
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.005582202108201047</v>
+        <v>0.005669975168642641</v>
       </c>
       <c r="C49">
         <v>7</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>260</v>
@@ -5478,7 +5478,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.005582202108201047</v>
+        <v>0.005669975168642641</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -5496,10 +5496,10 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K50">
         <v>0.003160800260635285</v>
@@ -5528,7 +5528,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005582202108201047</v>
+        <v>0.005669975168642641</v>
       </c>
       <c r="C51">
         <v>7</v>
@@ -5546,10 +5546,10 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K51">
         <v>0.003160800260635285</v>
@@ -5578,28 +5578,28 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.005582202108201047</v>
+        <v>0.005669975168642641</v>
       </c>
       <c r="C52">
         <v>7</v>
       </c>
       <c r="D52">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K52">
         <v>0.003160800260635285</v>
@@ -5628,25 +5628,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.005582202108201047</v>
+        <v>0.005669975168642641</v>
       </c>
       <c r="C53">
         <v>7</v>
       </c>
       <c r="D53">
-        <v>7</v>
+        <v>294</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>261</v>
@@ -5678,28 +5678,28 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.005582202108201047</v>
+        <v>0.005669975168642641</v>
       </c>
       <c r="C54">
         <v>7</v>
       </c>
       <c r="D54">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E54">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F54">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K54">
         <v>0.003160800260635285</v>
@@ -5728,28 +5728,28 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.005582202108201047</v>
+        <v>0.005669975168642641</v>
       </c>
       <c r="C55">
         <v>7</v>
       </c>
       <c r="D55">
-        <v>294</v>
+        <v>90</v>
       </c>
       <c r="E55">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="F55">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>89</v>
+        <v>237</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K55">
         <v>0.003107673783509301</v>
@@ -5778,25 +5778,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.005582202108201047</v>
+        <v>0.00524937697634062</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="E56">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>262</v>
@@ -5828,28 +5828,28 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.005582202108201047</v>
+        <v>0.00524937697634062</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="E57">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>237</v>
+        <v>2</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K57">
         <v>0.003053623159754646</v>
@@ -5878,7 +5878,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.00516811491276524</v>
+        <v>0.00524937697634062</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -5896,10 +5896,10 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K58">
         <v>0.003053623159754646</v>
@@ -5928,7 +5928,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.00516811491276524</v>
+        <v>0.00524937697634062</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -5946,10 +5946,10 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K59">
         <v>0.002942544904661237</v>
@@ -5978,7 +5978,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.00516811491276524</v>
+        <v>0.00524937697634062</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -5996,10 +5996,10 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K60">
         <v>0.002942544904661237</v>
@@ -6028,7 +6028,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.00516811491276524</v>
+        <v>0.00524937697634062</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>263</v>
@@ -6078,7 +6078,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.00516811491276524</v>
+        <v>0.00524937697634062</v>
       </c>
       <c r="C62">
         <v>6</v>
@@ -6096,10 +6096,10 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K62">
         <v>0.002942544904661237</v>
@@ -6128,13 +6128,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.00516811491276524</v>
+        <v>0.004792003637983367</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>264</v>
@@ -6178,13 +6178,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.00516811491276524</v>
+        <v>0.004792003637983367</v>
       </c>
       <c r="C64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -6196,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>265</v>
@@ -6228,7 +6228,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.00471782186250061</v>
+        <v>0.004792003637983367</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>266</v>
@@ -6278,7 +6278,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.00471782186250061</v>
+        <v>0.004792003637983367</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K66">
         <v>0.00282710569843182</v>
@@ -6328,7 +6328,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.00471782186250061</v>
+        <v>0.004792003637983367</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -6346,10 +6346,10 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K67">
         <v>0.00282710569843182</v>
@@ -6378,7 +6378,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.00471782186250061</v>
+        <v>0.004792003637983367</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -6396,10 +6396,10 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K68">
         <v>0.002767581017275664</v>
@@ -6428,7 +6428,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.00471782186250061</v>
+        <v>0.004792003637983367</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -6446,10 +6446,10 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K69">
         <v>0.002644515229932031</v>
@@ -6478,25 +6478,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.00471782186250061</v>
+        <v>0.004792003637983367</v>
       </c>
       <c r="C70">
         <v>5</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>162</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>35</v>
+        <v>705</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>267</v>
@@ -6528,28 +6528,28 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.00471782186250061</v>
+        <v>0.004792003637983367</v>
       </c>
       <c r="C71">
         <v>5</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>3022</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K71">
         <v>0.002580782605804176</v>
@@ -6578,25 +6578,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.00471782186250061</v>
+        <v>0.004792003637983367</v>
       </c>
       <c r="C72">
         <v>5</v>
       </c>
       <c r="D72">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="E72">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="F72">
-        <v>0.03000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>705</v>
+        <v>89</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>268</v>
@@ -6628,28 +6628,28 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.00471782186250061</v>
+        <v>0.004792003637983367</v>
       </c>
       <c r="C73">
         <v>5</v>
       </c>
       <c r="D73">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="E73">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F73">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>3022</v>
+        <v>72</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K73">
         <v>0.002580782605804176</v>
@@ -6678,25 +6678,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.00471782186250061</v>
+        <v>0.00428609835318284</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="E74">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>269</v>
@@ -6728,25 +6728,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.00471782186250061</v>
+        <v>0.00428609835318284</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E75">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>270</v>
@@ -6778,7 +6778,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.004219748156114412</v>
+        <v>0.00428609835318284</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -6796,10 +6796,10 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K76">
         <v>0.002515435730743348</v>
@@ -6828,7 +6828,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.004219748156114412</v>
+        <v>0.00428609835318284</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -6846,10 +6846,10 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K77">
         <v>0.002515435730743348</v>
@@ -6878,7 +6878,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.004219748156114412</v>
+        <v>0.00428609835318284</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -6896,10 +6896,10 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K78">
         <v>0.002515435730743348</v>
@@ -6928,7 +6928,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.004219748156114412</v>
+        <v>0.00428609835318284</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -6946,10 +6946,10 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K79">
         <v>0.002448345354025704</v>
@@ -6978,7 +6978,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.004219748156114412</v>
+        <v>0.00428609835318284</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -6996,10 +6996,10 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K80">
         <v>0.002448345354025704</v>
@@ -7028,7 +7028,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.004219748156114412</v>
+        <v>0.00428609835318284</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>271</v>
@@ -7078,25 +7078,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.004219748156114412</v>
+        <v>0.00428609835318284</v>
       </c>
       <c r="C82">
         <v>4</v>
       </c>
       <c r="D82">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>272</v>
@@ -7128,25 +7128,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.004219748156114412</v>
+        <v>0.00428609835318284</v>
       </c>
       <c r="C83">
         <v>4</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>273</v>
@@ -7178,25 +7178,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.004219748156114412</v>
+        <v>0.00428609835318284</v>
       </c>
       <c r="C84">
         <v>4</v>
       </c>
       <c r="D84">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="E84">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F84">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>274</v>
@@ -7228,25 +7228,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.004219748156114412</v>
+        <v>0.00428609835318284</v>
       </c>
       <c r="C85">
         <v>4</v>
       </c>
       <c r="D85">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E85">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F85">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>275</v>
@@ -7278,28 +7278,28 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.004219748156114412</v>
+        <v>0.00428609835318284</v>
       </c>
       <c r="C86">
         <v>4</v>
       </c>
       <c r="D86">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="E86">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F86">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K86">
         <v>0.002308322136690872</v>
@@ -7328,28 +7328,28 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.004219748156114412</v>
+        <v>0.00428609835318284</v>
       </c>
       <c r="C87">
         <v>4</v>
       </c>
       <c r="D87">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="E87">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F87">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K87">
         <v>0.002235023298271417</v>
@@ -7378,25 +7378,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.004219748156114412</v>
+        <v>0.003711870056974987</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="E88">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>276</v>
@@ -7428,28 +7428,28 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.004219748156114412</v>
+        <v>0.003711870056974987</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="E89">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K89">
         <v>0.002235023298271417</v>
@@ -7478,7 +7478,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.003654409100767623</v>
+        <v>0.003711870056974987</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -7496,10 +7496,10 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K90">
         <v>0.002235023298271417</v>
@@ -7528,7 +7528,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.003654409100767623</v>
+        <v>0.003711870056974987</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>277</v>
@@ -7578,7 +7578,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.003654409100767623</v>
+        <v>0.003711870056974987</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -7596,10 +7596,10 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K92">
         <v>0.002235023298271417</v>
@@ -7628,7 +7628,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.003654409100767623</v>
+        <v>0.003711870056974987</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -7646,10 +7646,10 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K93">
         <v>0.002159237643450802</v>
@@ -7678,7 +7678,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.003654409100767623</v>
+        <v>0.003711870056974987</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -7696,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>278</v>
@@ -7728,7 +7728,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.003654409100767623</v>
+        <v>0.003711870056974987</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -7746,7 +7746,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>279</v>
@@ -7778,7 +7778,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.003654409100767623</v>
+        <v>0.003711870056974987</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -7796,10 +7796,10 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K96">
         <v>0.002159237643450802</v>
@@ -7828,28 +7828,28 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.003654409100767623</v>
+        <v>0.003711870056974987</v>
       </c>
       <c r="C97">
         <v>3</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K97">
         <v>0.002159237643450802</v>
@@ -7878,25 +7878,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.003654409100767623</v>
+        <v>0.003711870056974987</v>
       </c>
       <c r="C98">
         <v>3</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>0.27</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>280</v>
@@ -7928,25 +7928,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.003654409100767623</v>
+        <v>0.003711870056974987</v>
       </c>
       <c r="C99">
         <v>3</v>
       </c>
       <c r="D99">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E99">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="F99">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>281</v>
@@ -7978,28 +7978,28 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.003654409100767623</v>
+        <v>0.003711870056974987</v>
       </c>
       <c r="C100">
         <v>3</v>
       </c>
       <c r="D100">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="E100">
-        <v>0.73</v>
+        <v>0.97</v>
       </c>
       <c r="F100">
-        <v>0.27</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K100">
         <v>0.002080693456031883</v>
@@ -8028,28 +8028,28 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003654409100767623</v>
+        <v>0.003711870056974987</v>
       </c>
       <c r="C101">
         <v>3</v>
       </c>
       <c r="D101">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="E101">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F101">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K101">
         <v>0.002080693456031883</v>
@@ -8078,25 +8078,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.003654409100767623</v>
+        <v>0.003711870056974987</v>
       </c>
       <c r="C102">
         <v>3</v>
       </c>
       <c r="D102">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="E102">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F102">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>282</v>
@@ -8128,28 +8128,28 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.003654409100767623</v>
+        <v>0.003711870056974987</v>
       </c>
       <c r="C103">
         <v>3</v>
       </c>
       <c r="D103">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="E103">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F103">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>9</v>
+        <v>156</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K103">
         <v>0.002080693456031883</v>
@@ -8178,25 +8178,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.003654409100767623</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="E104">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>283</v>
@@ -8228,25 +8228,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.003654409100767623</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D105">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>284</v>
@@ -8278,7 +8278,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -8296,7 +8296,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>285</v>
@@ -8328,7 +8328,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -8346,10 +8346,10 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K107">
         <v>0.002080693456031883</v>
@@ -8378,7 +8378,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>286</v>
@@ -8428,7 +8428,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -8446,10 +8446,10 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K109">
         <v>0.00199906561049227</v>
@@ -8478,7 +8478,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -8496,7 +8496,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>287</v>
@@ -8528,7 +8528,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>288</v>
@@ -8578,7 +8578,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -8596,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>289</v>
@@ -8628,7 +8628,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -8646,7 +8646,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>290</v>
@@ -8678,7 +8678,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>164</v>
+        <v>371</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>291</v>
@@ -8728,25 +8728,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>292</v>
@@ -8778,25 +8778,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
-        <v>371</v>
+        <v>103</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>293</v>
@@ -8828,28 +8828,28 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
       <c r="D117">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="E117">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K117">
         <v>0.001913959605668773</v>
@@ -8878,25 +8878,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C118">
         <v>2</v>
       </c>
       <c r="D118">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E118">
-        <v>0.6</v>
+        <v>0.78</v>
       </c>
       <c r="F118">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>294</v>
@@ -8928,25 +8928,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C119">
         <v>2</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>295</v>
@@ -8978,25 +8978,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
       <c r="D120">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="E120">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="F120">
-        <v>0.22</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>296</v>
@@ -9028,25 +9028,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
       <c r="D121">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E121">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F121">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>297</v>
@@ -9078,25 +9078,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C122">
         <v>2</v>
       </c>
       <c r="D122">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="E122">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="F122">
-        <v>0.03000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>298</v>
@@ -9128,25 +9128,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C123">
         <v>2</v>
       </c>
       <c r="D123">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E123">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F123">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>299</v>
@@ -9178,25 +9178,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C124">
         <v>2</v>
       </c>
       <c r="D124">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E124">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="F124">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>300</v>
@@ -9228,28 +9228,28 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C125">
         <v>2</v>
       </c>
       <c r="D125">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E125">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F125">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K125">
         <v>0.001824888881332421</v>
@@ -9278,28 +9278,28 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C126">
         <v>2</v>
       </c>
       <c r="D126">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E126">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
       <c r="F126">
-        <v>0.18</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K126">
         <v>0.001824888881332421</v>
@@ -9328,25 +9328,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
       <c r="D127">
+        <v>13</v>
+      </c>
+      <c r="E127">
+        <v>0.85</v>
+      </c>
+      <c r="F127">
+        <v>0.15</v>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127">
         <v>44</v>
-      </c>
-      <c r="E127">
-        <v>0.95</v>
-      </c>
-      <c r="F127">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G127" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127">
-        <v>53</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>301</v>
@@ -9378,25 +9378,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
       <c r="D128">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E128">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="F128">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>302</v>
@@ -9428,25 +9428,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="D129">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E129">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="F129">
-        <v>0.15</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>44</v>
+        <v>517</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>303</v>
@@ -9478,25 +9478,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
       <c r="D130">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E130">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F130">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>304</v>
@@ -9528,25 +9528,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
       <c r="D131">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E131">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F131">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>517</v>
+        <v>101</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>305</v>
@@ -9578,28 +9578,28 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
       <c r="D132">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E132">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F132">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K132">
         <v>0.001731241602518154</v>
@@ -9628,25 +9628,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
       <c r="D133">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="E133">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F133">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>101</v>
+        <v>443</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>306</v>
@@ -9678,13 +9678,13 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C134">
         <v>2</v>
       </c>
       <c r="D134">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E134">
         <v>0.97</v>
@@ -9696,7 +9696,7 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>307</v>
@@ -9728,25 +9728,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C135">
         <v>2</v>
       </c>
       <c r="D135">
-        <v>124</v>
+        <v>2</v>
       </c>
       <c r="E135">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>443</v>
+        <v>250</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>308</v>
@@ -9778,28 +9778,28 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
       <c r="D136">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="E136">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>202</v>
+        <v>5</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K136">
         <v>0.001731241602518154</v>
@@ -9828,7 +9828,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002983812536087931</v>
+        <v>0.003030729210368081</v>
       </c>
       <c r="C137">
         <v>2</v>
@@ -9846,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>309</v>
@@ -9878,13 +9878,13 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002983812536087931</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>310</v>
@@ -9928,13 +9928,13 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002983812536087931</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -9946,7 +9946,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>311</v>
@@ -9978,7 +9978,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -9996,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>312</v>
@@ -10028,7 +10028,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>313</v>
@@ -10078,7 +10078,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>314</v>
@@ -10128,7 +10128,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10146,7 +10146,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>315</v>
@@ -10178,25 +10178,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>316</v>
@@ -10228,7 +10228,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10246,10 +10246,10 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K145">
         <v>0.001632230236017136</v>
@@ -10278,25 +10278,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E146">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>317</v>
@@ -10328,25 +10328,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>318</v>
@@ -10378,7 +10378,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -10396,10 +10396,10 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K148">
         <v>0.001632230236017136</v>
@@ -10428,28 +10428,28 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E149">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F149">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K149">
         <v>0.001632230236017136</v>
@@ -10478,28 +10478,28 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K150">
         <v>0.001632230236017136</v>
@@ -10528,7 +10528,7 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -10546,7 +10546,7 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>319</v>
@@ -10578,28 +10578,28 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E152">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F152">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K152">
         <v>0.001526811579877323</v>
@@ -10628,25 +10628,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>320</v>
@@ -10678,28 +10678,28 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E154">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F154">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K154">
         <v>0.001526811579877323</v>
@@ -10728,28 +10728,28 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K155">
         <v>0.001526811579877323</v>
@@ -10778,28 +10778,28 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E156">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156">
         <v>13</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K156">
         <v>0.001526811579877323</v>
@@ -10828,25 +10828,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E157">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>321</v>
@@ -10878,7 +10878,7 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K158">
         <v>0.001526811579877323</v>
@@ -10928,25 +10928,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>322</v>
@@ -10978,7 +10978,7 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -10996,10 +10996,10 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K160">
         <v>0.001526811579877323</v>
@@ -11028,25 +11028,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E161">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F161">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>323</v>
@@ -11078,28 +11078,28 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K162">
         <v>0.001526811579877323</v>
@@ -11128,28 +11128,28 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E163">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F163">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K163">
         <v>0.00141355284921591</v>
@@ -11178,25 +11178,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E164">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F164">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>324</v>
@@ -11228,25 +11228,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E165">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F165">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>19</v>
+        <v>1095</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>325</v>
@@ -11278,28 +11278,28 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E166">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F166">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K166">
         <v>0.00141355284921591</v>
@@ -11328,25 +11328,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="E167">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>1095</v>
+        <v>23</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>326</v>
@@ -11378,25 +11378,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>327</v>
@@ -11428,7 +11428,7 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -11446,7 +11446,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>328</v>
@@ -11478,7 +11478,7 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -11496,7 +11496,7 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>329</v>
@@ -11528,25 +11528,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>330</v>
@@ -11578,25 +11578,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>331</v>
@@ -11628,25 +11628,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E173">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>332</v>
@@ -11678,25 +11678,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E174">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>333</v>
@@ -11728,7 +11728,7 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -11746,10 +11746,10 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K175">
         <v>0.00141355284921591</v>
@@ -11778,25 +11778,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>334</v>
@@ -11828,25 +11828,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>335</v>
@@ -11878,25 +11878,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E178">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F178">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>336</v>
@@ -11928,25 +11928,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E179">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F179">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>337</v>
@@ -11978,25 +11978,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
+        <v>3</v>
+      </c>
+      <c r="E180">
+        <v>0.67</v>
+      </c>
+      <c r="F180">
+        <v>0.33</v>
+      </c>
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180">
         <v>16</v>
-      </c>
-      <c r="E180">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F180">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180">
-        <v>96</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>338</v>
@@ -12028,25 +12028,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E181">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="F181">
-        <v>0.5</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>339</v>
@@ -12078,7 +12078,7 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -12096,7 +12096,7 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>340</v>
@@ -12128,25 +12128,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E183">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F183">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>341</v>
@@ -12178,25 +12178,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E184">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F184">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>342</v>
@@ -12228,25 +12228,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E185">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="F185">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>343</v>
@@ -12278,25 +12278,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E186">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F186">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>344</v>
@@ -12328,25 +12328,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E187">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="F187">
-        <v>0.04000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>345</v>
@@ -12378,28 +12378,28 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E188">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F188">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K188">
         <v>0.001290391302902088</v>
@@ -12428,7 +12428,7 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -12446,7 +12446,7 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>346</v>
@@ -12478,25 +12478,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E190">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F190">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>347</v>
@@ -12528,25 +12528,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E191">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F191">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>348</v>
@@ -12578,7 +12578,7 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -12596,7 +12596,7 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>349</v>
@@ -12628,25 +12628,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E193">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F193">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>350</v>
@@ -12678,25 +12678,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E194">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F194">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>351</v>
@@ -12728,25 +12728,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="E195">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="F195">
-        <v>0.25</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>352</v>
@@ -12778,25 +12778,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="E196">
-        <v>0.83</v>
+        <v>0.99</v>
       </c>
       <c r="F196">
-        <v>0.17</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>353</v>
@@ -12828,25 +12828,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="E197">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F197">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>354</v>
@@ -12878,25 +12878,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="E198">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F198">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>355</v>
@@ -12928,25 +12928,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E199">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F199">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>356</v>
@@ -12978,25 +12978,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E200">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F200">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>357</v>
@@ -13028,28 +13028,28 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E201">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F201">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K201">
         <v>0.001290391302902088</v>
@@ -13078,25 +13078,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E202">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F202">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>358</v>
@@ -13128,25 +13128,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E203">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F203">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>359</v>
@@ -13178,28 +13178,28 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E204">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F204">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K204">
         <v>0.001290391302902088</v>
@@ -13228,25 +13228,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E205">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F205">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>360</v>
@@ -13278,25 +13278,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E206">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F206">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>361</v>
@@ -13328,25 +13328,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E207">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F207">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>362</v>
@@ -13378,25 +13378,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E208">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="F208">
-        <v>0.09999999999999998</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>363</v>
@@ -13428,25 +13428,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E209">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F209">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>364</v>
@@ -13478,25 +13478,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E210">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="F210">
-        <v>0.08999999999999997</v>
+        <v>0.33</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>365</v>
@@ -13528,25 +13528,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E211">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F211">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>366</v>
@@ -13578,7 +13578,7 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -13596,10 +13596,10 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K212">
         <v>0.001154161068345436</v>
@@ -13628,25 +13628,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E213">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F213">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>367</v>
@@ -13678,25 +13678,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E214">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F214">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>368</v>
@@ -13728,28 +13728,28 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E215">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F215">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K215">
         <v>0.001154161068345436</v>
@@ -13778,13 +13778,13 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E216">
         <v>0.9399999999999999</v>
@@ -13796,7 +13796,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>369</v>
@@ -13828,25 +13828,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E217">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F217">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>370</v>
@@ -13878,25 +13878,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E218">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F218">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>371</v>
@@ -13928,25 +13928,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E219">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F219">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>372</v>
@@ -13978,13 +13978,13 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E220">
         <v>0.93</v>
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>373</v>
@@ -14028,25 +14028,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="E221">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F221">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>374</v>
@@ -14078,25 +14078,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E222">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F222">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>99</v>
+        <v>285</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>375</v>
@@ -14128,25 +14128,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E223">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F223">
-        <v>0.02000000000000002</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>376</v>
@@ -14178,13 +14178,13 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E224">
         <v>0.95</v>
@@ -14196,7 +14196,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>285</v>
+        <v>28</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>377</v>
@@ -14228,28 +14228,28 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E225">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="F225">
-        <v>0.08999999999999997</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K225">
         <v>0.001154161068345436</v>
@@ -14278,25 +14278,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E226">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F226">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>378</v>
@@ -14328,25 +14328,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
+        <v>31</v>
+      </c>
+      <c r="E227">
+        <v>0.97</v>
+      </c>
+      <c r="F227">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="G227" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227">
         <v>51</v>
-      </c>
-      <c r="E227">
-        <v>0.98</v>
-      </c>
-      <c r="F227">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="G227" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227">
-        <v>8</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>379</v>
@@ -14378,28 +14378,28 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E228">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F228">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>100</v>
+        <v>221</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K228">
         <v>0.001154161068345436</v>
@@ -14428,7 +14428,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14446,10 +14446,10 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K229">
         <v>0.001154161068345436</v>
@@ -14478,25 +14478,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>16</v>
+        <v>197</v>
       </c>
       <c r="E230">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F230">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>221</v>
+        <v>289</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>380</v>
@@ -14528,25 +14528,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E231">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H231">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>381</v>
@@ -14578,25 +14578,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>197</v>
+        <v>1</v>
       </c>
       <c r="E232">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232">
-        <v>289</v>
+        <v>9</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>382</v>
@@ -14628,7 +14628,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -14646,7 +14646,7 @@
         <v>0</v>
       </c>
       <c r="H233">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>383</v>
@@ -14678,7 +14678,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -14696,7 +14696,7 @@
         <v>0</v>
       </c>
       <c r="H234">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>384</v>
@@ -14728,7 +14728,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -14746,7 +14746,7 @@
         <v>0</v>
       </c>
       <c r="H235">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>385</v>
@@ -14778,7 +14778,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -14796,7 +14796,7 @@
         <v>0</v>
       </c>
       <c r="H236">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>386</v>
@@ -14828,7 +14828,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -14846,7 +14846,7 @@
         <v>0</v>
       </c>
       <c r="H237">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>387</v>
@@ -14878,7 +14878,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -14896,7 +14896,7 @@
         <v>0</v>
       </c>
       <c r="H238">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>388</v>
@@ -14928,25 +14928,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F239">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H239">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>389</v>
@@ -14978,25 +14978,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F240">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H240">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>390</v>
@@ -15028,25 +15028,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
+        <v>2</v>
+      </c>
+      <c r="E241">
+        <v>0.5</v>
+      </c>
+      <c r="F241">
+        <v>0.5</v>
+      </c>
+      <c r="G241" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241">
         <v>27</v>
-      </c>
-      <c r="E241">
-        <v>0.96</v>
-      </c>
-      <c r="F241">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G241" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241">
-        <v>120</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>391</v>
@@ -15078,25 +15078,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E242">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F242">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>392</v>
@@ -15128,25 +15128,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E243">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F243">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>393</v>
@@ -15178,25 +15178,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E244">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F244">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>394</v>
@@ -15228,25 +15228,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E245">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H245">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>395</v>
@@ -15278,25 +15278,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E246">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H246">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>396</v>
@@ -15328,25 +15328,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H247">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>397</v>
@@ -15378,7 +15378,7 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.002109874078057206</v>
+        <v>0.00214304917659142</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -15396,7 +15396,7 @@
         <v>0</v>
       </c>
       <c r="H248">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>398</v>
@@ -15424,30 +15424,6 @@
       </c>
     </row>
     <row r="249" spans="1:17">
-      <c r="A249" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B249">
-        <v>0.002109874078057206</v>
-      </c>
-      <c r="C249">
-        <v>1</v>
-      </c>
-      <c r="D249">
-        <v>6</v>
-      </c>
-      <c r="E249">
-        <v>0.83</v>
-      </c>
-      <c r="F249">
-        <v>0.17</v>
-      </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249">
-        <v>31</v>
-      </c>
       <c r="J249" s="1" t="s">
         <v>399</v>
       </c>
@@ -15474,30 +15450,6 @@
       </c>
     </row>
     <row r="250" spans="1:17">
-      <c r="A250" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B250">
-        <v>0.002109874078057206</v>
-      </c>
-      <c r="C250">
-        <v>1</v>
-      </c>
-      <c r="D250">
-        <v>1</v>
-      </c>
-      <c r="E250">
-        <v>0</v>
-      </c>
-      <c r="F250">
-        <v>1</v>
-      </c>
-      <c r="G250" t="b">
-        <v>0</v>
-      </c>
-      <c r="H250">
-        <v>11</v>
-      </c>
       <c r="J250" s="1" t="s">
         <v>400</v>
       </c>
@@ -15577,7 +15529,7 @@
     </row>
     <row r="253" spans="1:17">
       <c r="J253" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K253">
         <v>0.0009995328052461352</v>
@@ -15785,7 +15737,7 @@
     </row>
     <row r="261" spans="10:17">
       <c r="J261" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K261">
         <v>0.0009995328052461352</v>
@@ -15837,7 +15789,7 @@
     </row>
     <row r="263" spans="10:17">
       <c r="J263" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K263">
         <v>0.0009995328052461352</v>
@@ -15915,7 +15867,7 @@
     </row>
     <row r="266" spans="10:17">
       <c r="J266" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K266">
         <v>0.0009995328052461352</v>
@@ -16487,7 +16439,7 @@
     </row>
     <row r="288" spans="10:17">
       <c r="J288" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K288">
         <v>0.0009995328052461352</v>
@@ -16929,7 +16881,7 @@
     </row>
     <row r="305" spans="10:17">
       <c r="J305" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K305">
         <v>0.0009995328052461352</v>
@@ -16981,7 +16933,7 @@
     </row>
     <row r="307" spans="10:17">
       <c r="J307" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K307">
         <v>0.0009995328052461352</v>
@@ -17319,7 +17271,7 @@
     </row>
     <row r="320" spans="10:17">
       <c r="J320" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K320">
         <v>0.0009995328052461352</v>
@@ -18203,7 +18155,7 @@
     </row>
     <row r="354" spans="10:17">
       <c r="J354" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K354">
         <v>0.0008161151180085682</v>
@@ -18437,7 +18389,7 @@
     </row>
     <row r="363" spans="10:17">
       <c r="J363" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K363">
         <v>0.0008161151180085682</v>
@@ -18853,7 +18805,7 @@
     </row>
     <row r="379" spans="10:17">
       <c r="J379" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K379">
         <v>0.0008161151180085682</v>
@@ -19139,7 +19091,7 @@
     </row>
     <row r="390" spans="10:17">
       <c r="J390" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K390">
         <v>0.0008161151180085682</v>
@@ -20127,7 +20079,7 @@
     </row>
     <row r="428" spans="10:17">
       <c r="J428" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K428">
         <v>0.0008161151180085682</v>
@@ -20309,7 +20261,7 @@
     </row>
     <row r="435" spans="10:17">
       <c r="J435" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K435">
         <v>0.0008161151180085682</v>
@@ -20517,7 +20469,7 @@
     </row>
     <row r="443" spans="10:17">
       <c r="J443" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K443">
         <v>0.0008161151180085682</v>
@@ -23845,7 +23797,7 @@
     </row>
     <row r="571" spans="10:17">
       <c r="J571" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K571">
         <v>0.000577080534172718</v>
@@ -24651,7 +24603,7 @@
     </row>
     <row r="602" spans="10:17">
       <c r="J602" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K602">
         <v>0.000577080534172718</v>
@@ -24989,7 +24941,7 @@
     </row>
     <row r="615" spans="10:17">
       <c r="J615" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K615">
         <v>0.000577080534172718</v>
@@ -25249,7 +25201,7 @@
     </row>
     <row r="625" spans="10:17">
       <c r="J625" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K625">
         <v>0.000577080534172718</v>
@@ -25769,7 +25721,7 @@
     </row>
     <row r="645" spans="10:17">
       <c r="J645" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K645">
         <v>0.000577080534172718</v>
@@ -26783,7 +26735,7 @@
     </row>
     <row r="684" spans="10:17">
       <c r="J684" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K684">
         <v>0.000577080534172718</v>
@@ -26991,7 +26943,7 @@
     </row>
     <row r="692" spans="10:17">
       <c r="J692" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K692">
         <v>0.000577080534172718</v>
@@ -27069,7 +27021,7 @@
     </row>
     <row r="695" spans="10:17">
       <c r="J695" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K695">
         <v>0.000577080534172718</v>
@@ -27355,7 +27307,7 @@
     </row>
     <row r="706" spans="10:17">
       <c r="J706" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K706">
         <v>0.000577080534172718</v>
@@ -28239,7 +28191,7 @@
     </row>
     <row r="740" spans="10:17">
       <c r="J740" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K740">
         <v>0.000577080534172718</v>
@@ -29097,7 +29049,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K773">
         <v>0.000577080534172718</v>
